--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/staffImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/staffImportSchema_pl.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Pracownicy - import" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -16,7 +24,7 @@
     <author>qcadoo MES</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -29,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Numer</t>
   </si>
@@ -186,36 +194,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -232,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -240,103 +244,439 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="staffImportSchema_pl" displayName="staffImportSchema_pl" ref="A1:J2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J2"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Numer" dataDxfId="9"/>
+    <tableColumn id="2" name="Imię" dataDxfId="8"/>
+    <tableColumn id="3" name="Nazwisko" dataDxfId="7"/>
+    <tableColumn id="4" name="E-mail" dataDxfId="6"/>
+    <tableColumn id="5" name="Telefon" dataDxfId="5"/>
+    <tableColumn id="6" name="Pracuje dla" dataDxfId="4"/>
+    <tableColumn id="7" name="Stanowisko" dataDxfId="3"/>
+    <tableColumn id="8" name="Dział" dataDxfId="2"/>
+    <tableColumn id="9" name="Stacja robocza" dataDxfId="1"/>
+    <tableColumn id="10" name="Załoga" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -538,7 +878,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -557,7 +897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -587,7 +927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -613,7 +953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -639,7 +979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -665,7 +1005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -691,7 +1031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -717,7 +1057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +1109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -795,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,9 +1148,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -827,7 +1173,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -846,7 +1192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +1218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +1270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +1296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +1348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1374,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1400,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1426,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1093,9 +1439,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1109,7 +1461,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1128,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1510,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,7 +1536,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1562,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,7 +1588,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1614,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1314,7 +1666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,7 +1692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,7 +1718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,75 +1731,88 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.8516" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.8516" style="1" customWidth="1"/>
-    <col min="5" max="10" width="16.8516" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="20.875" style="3" customWidth="1"/>
+    <col min="5" max="10" width="16.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1459,7 +1824,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:10" ht="15.95" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1471,7 +1836,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:10" ht="15.95" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1483,7 +1848,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:10" ht="15.95" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1495,7 +1860,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:10" ht="15.95" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1507,7 +1872,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:10" ht="15.95" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1519,7 +1884,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1531,7 +1896,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1543,7 +1908,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1555,7 +1920,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1567,7 +1932,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1579,7 +1944,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1591,7 +1956,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:10" ht="15.95" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1603,7 +1968,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:10" ht="15.95" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1615,7 +1980,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:10" ht="15.95" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1627,7 +1992,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:10" ht="15.95" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1639,7 +2004,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:10" ht="15.95" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1651,7 +2016,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:10" ht="15.95" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1663,7 +2028,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:10" ht="15.95" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1675,7 +2040,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:10" ht="15.95" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1687,7 +2052,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:10" ht="15.95" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1699,7 +2064,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:10" ht="15.95" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1711,7 +2076,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:10" ht="15.95" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1723,7 +2088,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:10" ht="15.95" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1735,7 +2100,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:10" ht="15.95" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1747,7 +2112,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:10" ht="15.95" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1759,7 +2124,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:10" ht="15.95" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1771,7 +2136,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:10" ht="15.95" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1783,7 +2148,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:10" ht="15.95" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1795,7 +2160,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:10" ht="15.95" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1807,7 +2172,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" spans="1:10" ht="15.95" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1819,7 +2184,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:10" ht="15.95" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1831,7 +2196,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:10" ht="15.95" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1843,7 +2208,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" spans="1:10" ht="15.95" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1855,7 +2220,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" spans="1:10" ht="15.95" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1867,7 +2232,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" spans="1:10" ht="15.95" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1879,7 +2244,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" spans="1:10" ht="15.95" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1891,7 +2256,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:10" ht="15.95" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1903,7 +2268,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" spans="1:10" ht="15.95" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1915,7 +2280,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:10" ht="15.95" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1927,7 +2292,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:10" ht="15.95" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1939,7 +2304,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:10" ht="15.95" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1951,7 +2316,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:10" ht="15.95" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1963,7 +2328,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:10" ht="15.95" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1975,7 +2340,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:10" ht="15.95" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1987,7 +2352,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:10" ht="15.95" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1999,7 +2364,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:10" ht="15.95" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2011,7 +2376,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:10" ht="15.95" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2023,7 +2388,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:10" ht="15.95" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2035,7 +2400,7 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:10" ht="15.95" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2047,7 +2412,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:10" ht="15.95" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2059,7 +2424,7 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:10" ht="15.95" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2071,7 +2436,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:10" ht="15.95" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2083,7 +2448,7 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" spans="1:10" ht="15.95" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2095,7 +2460,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
+    <row r="57" spans="1:10" ht="15.95" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2107,7 +2472,7 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
+    <row r="58" spans="1:10" ht="15.95" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2119,7 +2484,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
+    <row r="59" spans="1:10" ht="15.95" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2131,7 +2496,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
+    <row r="60" spans="1:10" ht="15.95" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2143,7 +2508,7 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
+    <row r="61" spans="1:10" ht="15.95" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2155,7 +2520,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" spans="1:10" ht="15.95" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2167,7 +2532,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
+    <row r="63" spans="1:10" ht="15.95" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2180,12 +2545,14 @@
       <c r="J63" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>